--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CB6881-C31D-4938-A8F2-801C94897C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52D54A0-BFC1-4F41-8EC0-F86055F0859C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>gfdgdg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>dd</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>sas</t>
+    <t>mati</t>
+  </si>
+  <si>
+    <t>fdsd</t>
+  </si>
+  <si>
+    <t>dsfsf</t>
+  </si>
+  <si>
+    <t>sdffsd</t>
+  </si>
+  <si>
+    <t>sfdfds</t>
+  </si>
+  <si>
+    <t>sdffsdf</t>
+  </si>
+  <si>
+    <t>fsdsdfs</t>
+  </si>
+  <si>
+    <t>fdfs</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>sfs</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>sfd</t>
   </si>
 </sst>
 </file>
@@ -357,42 +387,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52D54A0-BFC1-4F41-8EC0-F86055F0859C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB72BA8E-7322-4133-BFD4-21751C1E9324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>dd</t>
   </si>
@@ -85,15 +85,51 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,12 +137,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="hair">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -390,195 +442,193 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mato\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB72BA8E-7322-4133-BFD4-21751C1E9324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,67 +24,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>mati</t>
-  </si>
-  <si>
-    <t>fdsd</t>
-  </si>
-  <si>
-    <t>dsfsf</t>
-  </si>
-  <si>
-    <t>sdffsd</t>
-  </si>
-  <si>
-    <t>sfdfds</t>
-  </si>
-  <si>
-    <t>sdffsdf</t>
-  </si>
-  <si>
-    <t>fsdsdfs</t>
-  </si>
-  <si>
-    <t>fdfs</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>sfs</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>sfd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
+  <si>
+    <t>B E O S Z T Á S   A Z   Á L V Á N Y O K H O Z</t>
+  </si>
+  <si>
+    <t>szeptember-október</t>
+  </si>
+  <si>
+    <t>Örös</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagygéres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisgéres </t>
+  </si>
+  <si>
+    <t>Nagykövesd</t>
+  </si>
+  <si>
+    <t>Perbenyik</t>
+  </si>
+  <si>
+    <t>Kedd 12:00-14:00 Szomb. 08:00-10:00</t>
+  </si>
+  <si>
+    <t>Péntek 08:00-10:00</t>
+  </si>
+  <si>
+    <t>Kedd,Péntek,Szombat</t>
+  </si>
+  <si>
+    <t>08:00-10:00</t>
+  </si>
+  <si>
+    <t>Szombat 08:00-10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Kedd</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin</t>
+  </si>
+  <si>
+    <t>Pelák Olgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Péntek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Szombat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Pelák Olgi</t>
+  </si>
+  <si>
+    <t>Kovács Éva</t>
+  </si>
+  <si>
+    <t>Kovács István</t>
+  </si>
+  <si>
+    <t>Eszenyi Bébi</t>
+  </si>
+  <si>
+    <t>Mily Zsuzsa</t>
+  </si>
+  <si>
+    <t>Móricz Miriám</t>
+  </si>
+  <si>
+    <t>Hami Olgi</t>
+  </si>
+  <si>
+    <t>Ádám Edit</t>
+  </si>
+  <si>
+    <t>Czinke Alica</t>
+  </si>
+  <si>
+    <t>Eszenyi Martina</t>
+  </si>
+  <si>
+    <t>Eszenyi Icu</t>
+  </si>
+  <si>
+    <t>Eszenyi Csilla</t>
+  </si>
+  <si>
+    <t>Móricz Norbert</t>
+  </si>
+  <si>
+    <t>Móricz Zsolt</t>
+  </si>
+  <si>
+    <t>Illés Attila</t>
+  </si>
+  <si>
+    <t>Móricz Éva</t>
+  </si>
+  <si>
+    <t>Németh Irén</t>
+  </si>
+  <si>
+    <t>Csokina Miklós</t>
+  </si>
+  <si>
+    <t>Bacskai Gizella</t>
+  </si>
+  <si>
+    <t>Gál Edit</t>
+  </si>
+  <si>
+    <t>Gazdag Eta</t>
+  </si>
+  <si>
+    <t>Eszenyi Angéla</t>
+  </si>
+  <si>
+    <t>ifj.Eszenyi István</t>
+  </si>
+  <si>
+    <t>Eszenyi Anita</t>
+  </si>
+  <si>
+    <t>Soltész Csaba</t>
+  </si>
+  <si>
+    <t>Ferenczi Éva</t>
+  </si>
+  <si>
+    <t>Móricz Zoltán</t>
+  </si>
+  <si>
+    <t>Móricz Jutka</t>
+  </si>
+  <si>
+    <t>Mato Nelli</t>
+  </si>
+  <si>
+    <t>Mato Miro</t>
+  </si>
+  <si>
+    <t>Tomori Marika</t>
+  </si>
+  <si>
+    <t>Móricz Marika</t>
+  </si>
+  <si>
+    <t>Pongó Irma</t>
+  </si>
+  <si>
+    <t>Mily Gyuri</t>
+  </si>
+  <si>
+    <t>Hami Krisztián</t>
+  </si>
+  <si>
+    <t>Kosztyu Klára</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.9.2025</t>
+  </si>
+  <si>
+    <t>27.9.20225</t>
+  </si>
+  <si>
+    <t>Mily Cyntia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.10.2025</t>
+  </si>
+  <si>
+    <t>Eszenyi Angi</t>
+  </si>
+  <si>
+    <t>Czinke Berti</t>
+  </si>
+  <si>
+    <t>id. Eszenyi István</t>
+  </si>
+  <si>
+    <t>Gál Zoli</t>
+  </si>
+  <si>
+    <t>Gazdag Róbi</t>
+  </si>
+  <si>
+    <t>Mato Pali</t>
+  </si>
+  <si>
+    <t>Eszenyi Cs./Gál Edit</t>
+  </si>
+  <si>
+    <t>Biacsko Miki</t>
+  </si>
+  <si>
+    <t>Eszenyi Nori</t>
+  </si>
+  <si>
+    <t>Vencel Gergő</t>
+  </si>
+  <si>
+    <t>Ferenci Józsi</t>
+  </si>
+  <si>
+    <t>Eszenyi Norbi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,42 +309,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor rgb="FF8EAADB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFF7CAAC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFBDD6EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFF4B083"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC5E0B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -137,31 +364,360 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="hair">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="hair">
+        <color indexed="64"/>
       </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -177,7 +733,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -438,201 +994,921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>45902</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>45906</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>45909</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>45912</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>45913</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>45916</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>45919</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>45920</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>45923</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>45926</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>45930</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="35"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>45933</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
+        <v>45937</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="34"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>54</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="35"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>45940</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <v>45941</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>45944</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="35"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="31">
+        <v>45947</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
+        <v>45948</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
+        <v>45951</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="34"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="31">
+        <v>45954</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="29">
+        <v>45955</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="25">
+        <v>45958</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="34"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="37"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="31">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="74">
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+  </mergeCells>
+  <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACEFB91F-E7DB-42EC-B33A-F6FEC62E6A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34108D-C7F2-4451-A9B2-696EB93CCD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CBE4A14A-ACE0-4CC9-9782-729FEDF5718F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="69">
   <si>
     <t>Örös</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Mato Pali</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -554,16 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,18 +566,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -602,28 +587,43 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,19 +632,22 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -963,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BBCF72-1EAC-4812-B025-59A82BECDF4B}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,794 +997,996 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="12">
         <v>45902</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="E6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="12">
         <v>45906</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24" t="s">
+      <c r="C8" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="26" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="12">
         <v>45909</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="12">
         <v>45912</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="12">
         <v>45913</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="24" t="s">
+      <c r="C14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="12">
         <v>45916</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="12">
         <v>45919</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="12">
         <v>45920</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24" t="s">
+      <c r="C20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="26" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="12">
         <v>45923</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24" t="s">
+      <c r="C22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="12">
         <v>45926</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="24" t="s">
+      <c r="C26" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="26" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="A28" s="12">
         <v>45930</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24" t="s">
+      <c r="C28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="25"/>
+      <c r="E28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="12">
         <v>45933</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="24" t="s">
+      <c r="C32" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="26" t="s">
+      <c r="C33" s="23"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="A34" s="12">
         <v>45937</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24" t="s">
+      <c r="C34" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
+      <c r="A36" s="12">
         <v>45940</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24" t="s">
+      <c r="B36" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="E36" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="12">
         <v>45941</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="24" t="s">
+      <c r="C38" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="26" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="12">
         <v>45944</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24" t="s">
+      <c r="C40" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="25"/>
+      <c r="E40" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="26" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="12">
         <v>45947</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="E42" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="A44" s="12">
         <v>45948</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="24" t="s">
+      <c r="C44" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="26" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
+      <c r="A46" s="12">
         <v>45951</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24" t="s">
+      <c r="C46" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="25"/>
+      <c r="E46" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="26" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="25"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
+      <c r="A48" s="12">
         <v>45954</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24" t="s">
+      <c r="B48" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="E48" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="18">
+      <c r="A50" s="12">
         <v>45955</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="24" t="s">
+      <c r="C50" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="26" t="s">
+      <c r="C51" s="23"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="18">
+      <c r="A52" s="12">
         <v>45958</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24" t="s">
+      <c r="C52" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="25"/>
+      <c r="E52" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="35" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18">
+      <c r="A54" s="12">
         <v>45961</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24" t="s">
+      <c r="B54" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="E54" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="26" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="F54:F55"/>
@@ -1793,68 +1998,6 @@
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="F52:F53"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34108D-C7F2-4451-A9B2-696EB93CCD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1EF819-6ACD-4052-BEC1-CD38593323E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CBE4A14A-ACE0-4CC9-9782-729FEDF5718F}"/>
   </bookViews>
@@ -614,16 +614,22 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,22 +638,16 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -967,7 +967,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="C44" sqref="C44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,16 +997,16 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1015,12 +1015,12 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1269,7 +1269,7 @@
       <c r="A18" s="12">
         <v>45919</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -1289,7 +1289,7 @@
       <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="18" t="s">
         <v>40</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="B44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="34" t="s">
         <v>68</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -1742,7 +1742,7 @@
       <c r="B45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="29"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="25"/>
       <c r="E45" s="18" t="s">
         <v>32</v>
@@ -1882,12 +1882,12 @@
       <c r="B53" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="26"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="37"/>
     </row>
     <row r="54" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
@@ -1925,20 +1925,49 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
@@ -1955,49 +1984,20 @@
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{884448D1-4F71-41CD-ADEA-39F7C9B79715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E12C2-58E6-4382-B97A-F3929109BFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8E3E5DE-76D9-49F1-A54B-BCACB488ED1A}"/>
   </bookViews>
@@ -292,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -312,65 +312,50 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4A1C2F-2A88-46BB-9095-2CB2990FAE83}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,563 +706,547 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+    <row r="3" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="C3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26" t="s">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="B11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>45923</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
-        <v>45923</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="26" t="s">
+      <c r="A13" s="8">
+        <v>45926</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19">
-        <v>45926</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25" t="s">
+      <c r="A14" s="7">
+        <v>45927</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
-        <v>45927</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="A15" s="8">
+        <v>45930</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19">
-        <v>45930</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25" t="s">
+      <c r="A16" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
-        <v>45933</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26" t="s">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25" t="s">
+      <c r="A18" s="7">
+        <v>45937</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
-        <v>45937</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="26" t="s">
+      <c r="A19" s="8">
+        <v>45940</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="19">
-        <v>45940</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25" t="s">
+      <c r="A20" s="7">
+        <v>45941</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
-        <v>45941</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26" t="s">
+      <c r="A21" s="8">
+        <v>45944</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19">
-        <v>45944</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="A22" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
-        <v>45947</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="A23" s="8">
+        <v>45948</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19">
-        <v>45948</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="A24" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
-        <v>45951</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26" t="s">
+      <c r="A25" s="8">
+        <v>45954</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19">
-        <v>45954</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="A26" s="7">
+        <v>45955</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
-        <v>45955</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="26" t="s">
+      <c r="A27" s="8">
+        <v>45958</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19">
-        <v>45958</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
+      <c r="A28" s="7">
         <v>45961</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="26" t="s">
+      <c r="B28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E12C2-58E6-4382-B97A-F3929109BFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C169D476-8415-418C-9937-9013484BBEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8E3E5DE-76D9-49F1-A54B-BCACB488ED1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="39">
   <si>
     <t>/</t>
   </si>
@@ -54,9 +45,6 @@
     <t>Perbenyik</t>
   </si>
   <si>
-    <t>szeptember-október</t>
-  </si>
-  <si>
     <t>Péntek 08:00-10:00</t>
   </si>
   <si>
@@ -66,54 +54,121 @@
     <t>Szombat 08:00-10:00</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.10.2025</t>
-  </si>
-  <si>
     <t>Ke. 12-14h Szo. 08-10h</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>2.9.2025
+    <t>november-december</t>
+  </si>
+  <si>
+    <t>25.11.2025
 Kedd</t>
   </si>
   <si>
-    <t xml:space="preserve">  5.9.2025
+    <t>7.11.2025
 Péntek</t>
   </si>
   <si>
-    <t>6.9.2025
+    <t>8.11.2025
 Szombat</t>
   </si>
   <si>
-    <t>9.9.2025
+    <t>11.11.2025
 Kedd</t>
   </si>
   <si>
-    <t>12.9.2025
+    <t>14.11.2025
 Péntek</t>
   </si>
   <si>
-    <t>19.9.2025
+    <t>15.11.2025
+Szombat</t>
+  </si>
+  <si>
+    <t>18.11.2025
+Kedd</t>
+  </si>
+  <si>
+    <t>21.11.2025
 Péntek</t>
   </si>
   <si>
-    <t>20.9.2025
+    <t>22.11.2025
 Szombat</t>
   </si>
   <si>
-    <t>13.9.2025
+    <t>28.11.2025
+Péntek</t>
+  </si>
+  <si>
+    <t>29.11.2025
 Szombat</t>
   </si>
   <si>
-    <t>16.9.2025
+    <t>5.12.2025
+Péntek</t>
+  </si>
+  <si>
+    <t>2.12.2025
 Kedd</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripcsu Katalin
-Ádám Edit
-</t>
+    <t>4.11.2025
+Kedd</t>
+  </si>
+  <si>
+    <t>6.12.2025
+Szombat</t>
+  </si>
+  <si>
+    <t>9.12.2025
+Kedd</t>
+  </si>
+  <si>
+    <t>12.12.2025
+Péntek</t>
+  </si>
+  <si>
+    <t>13.12.2025
+Szombat</t>
+  </si>
+  <si>
+    <t>16.12.2025
+Kedd</t>
+  </si>
+  <si>
+    <t>19.12.2025
+Péntek</t>
+  </si>
+  <si>
+    <t>20.12.2025
+Szombat</t>
+  </si>
+  <si>
+    <t>23.12.2025
+Kedd</t>
+  </si>
+  <si>
+    <t>26.12.2025
+Péntek</t>
+  </si>
+  <si>
+    <t>27.12.2025
+Szombat</t>
+  </si>
+  <si>
+    <t>30.12.2025
+Kedd</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Ádám Edit</t>
+  </si>
+  <si>
+    <t>1.11.2025
+Szombat</t>
   </si>
 </sst>
 </file>
@@ -292,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -312,15 +367,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -356,6 +402,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4A1C2F-2A88-46BB-9095-2CB2990FAE83}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -706,543 +755,543 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>45923</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>45926</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>45927</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>45930</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>45933</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>45937</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>45940</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>45941</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>45944</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>45947</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>45948</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>45951</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>45954</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>45955</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
-        <v>45958</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>45961</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mato\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C169D476-8415-418C-9937-9013484BBEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8E3E5DE-76D9-49F1-A54B-BCACB488ED1A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>/</t>
   </si>
@@ -169,13 +168,221 @@
   <si>
     <t>1.11.2025
 Szombat</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Móricz Miriám</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Mily Zsuzsa</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Eszenyi Bébi</t>
+  </si>
+  <si>
+    <t>Simon Albert
+id.Eszenyi István</t>
+  </si>
+  <si>
+    <t>Simon Albert
+Olga Simon</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Ferenczi Éva</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Mily Cynthia</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Czinke Alica</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Eszenyi Martina</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Eszenyi Angéla</t>
+  </si>
+  <si>
+    <t>Gazdag Róbert
+Móricz Norbert</t>
+  </si>
+  <si>
+    <t>Illés Attila
+Soltész Csaba</t>
+  </si>
+  <si>
+    <t>Mily Gyuri
+Mato Pál</t>
+  </si>
+  <si>
+    <t>Gál Zoltán
+Móricz Zsolt</t>
+  </si>
+  <si>
+    <t>Móricz Zoltán
+Móricz Jutka</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Németh Irén</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Tomori Marika</t>
+  </si>
+  <si>
+    <t>Pongó Irma
+Kosztyu Klára</t>
+  </si>
+  <si>
+    <t>Pelák  Olgi
+Eszenyi Icu</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Móricz Marika</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Gazdag Eta</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Eszenyi Anita</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Eszenzi Cilla,Gál Edit</t>
+  </si>
+  <si>
+    <t>Csokina Miklós
+ifj.Eszenyi István</t>
+  </si>
+  <si>
+    <t>Eszenyi Norbi
+Biacsko Miklós</t>
+  </si>
+  <si>
+    <t>Móricz Éva
+Hami Olga</t>
+  </si>
+  <si>
+    <t>Czinke Berti
+Venczel Gergő</t>
+  </si>
+  <si>
+    <t>Mato Miro
+Hami Krisztián</t>
+  </si>
+  <si>
+    <t>Móricz Zoltán
+Móricz Zsolt</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Bacskai Gizella</t>
+  </si>
+  <si>
+    <t>Kovács István
+Kovács Éva</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Eszenyi Anita</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Hami Olga</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Kostyu Klára</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Gál Edit</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Móricz Miriám</t>
+  </si>
+  <si>
+    <t>Gál Zoltán
+Biacsko Mikós</t>
+  </si>
+  <si>
+    <t>Móricz Éva
+Pongó Irma</t>
+  </si>
+  <si>
+    <t>Mily Zsuzsa
+Eszenyi Bébi</t>
+  </si>
+  <si>
+    <t>Pelák Olgi 
+Németh Irén</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Eszenyi Icu</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Móricz Jutka</t>
+  </si>
+  <si>
+    <t>Mato Nelli
+Mily Cynthia</t>
+  </si>
+  <si>
+    <t>Illés Attila
+Mily Gyuri</t>
+  </si>
+  <si>
+    <t>Gazdag Róbert
+Venczel Gergő</t>
+  </si>
+  <si>
+    <t>id Eszenyi István 
+Hami Krisztián</t>
+  </si>
+  <si>
+    <t>ifj.Eszenzi István
+Móricz Norbert</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Kovács István
+Kvács Éva</t>
+  </si>
+  <si>
+    <t>Mato Pál
+Csokina Miklós</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +435,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -406,9 +629,24 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -719,23 +957,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4A1C2F-2A88-46BB-9095-2CB2990FAE83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -755,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
@@ -775,38 +1013,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>0</v>
+      <c r="D4" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>0</v>
@@ -815,32 +1053,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>0</v>
+      <c r="B5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>0</v>
+      <c r="B6" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>0</v>
@@ -848,25 +1086,25 @@
       <c r="D6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>0</v>
+      <c r="B7" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>0</v>
+      <c r="D7" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>0</v>
@@ -875,18 +1113,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>0</v>
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>0</v>
@@ -895,38 +1133,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>0</v>
+      <c r="B9" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>0</v>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>0</v>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>0</v>
@@ -935,18 +1173,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>0</v>
+      <c r="B11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>0</v>
@@ -955,12 +1193,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>0</v>
+      <c r="B12" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>0</v>
@@ -968,25 +1206,25 @@
       <c r="D12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>0</v>
+      <c r="B13" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>0</v>
+      <c r="D13" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>0</v>
@@ -995,18 +1233,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>0</v>
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>0</v>
@@ -1015,38 +1253,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>0</v>
+      <c r="B15" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>0</v>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>0</v>
+      <c r="D16" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>0</v>
@@ -1055,32 +1293,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="B17" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>0</v>
+      <c r="B18" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>0</v>
@@ -1088,25 +1326,25 @@
       <c r="D18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>0</v>
+      <c r="B19" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>0</v>
+      <c r="D19" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>0</v>
@@ -1115,18 +1353,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>0</v>
+      <c r="B20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>0</v>
@@ -1135,38 +1373,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>0</v>
+      <c r="B21" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>0</v>
+      <c r="B22" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>0</v>
+      <c r="D22" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>0</v>
@@ -1175,17 +1413,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -1195,12 +1433,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>0</v>
+      <c r="B24" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>0</v>
@@ -1208,25 +1446,25 @@
       <c r="D24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>0</v>
+      <c r="B25" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>0</v>
+      <c r="D25" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>0</v>
@@ -1235,58 +1473,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>0</v>
+      <c r="B26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>0</v>
+      <c r="B27" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>0</v>
+      <c r="B28" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>0</v>
+      <c r="D28" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,8 +1423,8 @@
       <c r="C23" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>0</v>
+      <c r="D23" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mato\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B5FAEA-ACE3-425E-B0C1-B0A2B2759404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -381,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,18 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -593,21 +582,12 @@
     <xf numFmtId="14" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,27 +609,32 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD9D9D9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -957,23 +942,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -993,543 +978,543 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="E4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="C9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="E10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="E14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="C15" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="E16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="E17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="E20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="C21" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="E22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="C27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="E28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B5FAEA-ACE3-425E-B0C1-B0A2B2759404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B89D45-6655-41B0-BBA9-A40C7474E06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>/</t>
   </si>
@@ -259,10 +259,6 @@
 Eszenyi Anita</t>
   </si>
   <si>
-    <t>Pelák Olgi
-Eszenzi Cilla,Gál Edit</t>
-  </si>
-  <si>
     <t>Csokina Miklós
 ifj.Eszenyi István</t>
   </si>
@@ -371,12 +367,12 @@
     <t>P</t>
   </si>
   <si>
-    <t>Kovács István
-Kvács Éva</t>
-  </si>
-  <si>
     <t>Mato Pál
 Csokina Miklós</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Eszenyi Cilla,Gál Edit</t>
   </si>
 </sst>
 </file>
@@ -945,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1029,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>0</v>
@@ -1072,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1135,7 +1131,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1192,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1229,7 +1225,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>0</v>
@@ -1269,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>0</v>
@@ -1286,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>0</v>
@@ -1303,7 +1299,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>0</v>
@@ -1312,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1323,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>0</v>
@@ -1346,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>0</v>
@@ -1363,7 +1359,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>0</v>
@@ -1372,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1406,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>0</v>
@@ -1432,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1443,13 +1439,13 @@
         <v>33</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>0</v>
@@ -1463,19 +1459,19 @@
         <v>34</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1492,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1509,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B89D45-6655-41B0-BBA9-A40C7474E06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D28A0D9-8741-4A33-91B9-FF26266A073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
   <si>
     <t>/</t>
   </si>
@@ -55,143 +55,17 @@
   </si>
   <si>
     <t>Ke. 12-14h Szo. 08-10h</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>november-december</t>
-  </si>
-  <si>
-    <t>25.11.2025
-Kedd</t>
-  </si>
-  <si>
-    <t>7.11.2025
-Péntek</t>
-  </si>
-  <si>
-    <t>8.11.2025
-Szombat</t>
-  </si>
-  <si>
-    <t>11.11.2025
-Kedd</t>
-  </si>
-  <si>
-    <t>14.11.2025
-Péntek</t>
-  </si>
-  <si>
-    <t>15.11.2025
-Szombat</t>
-  </si>
-  <si>
-    <t>18.11.2025
-Kedd</t>
-  </si>
-  <si>
-    <t>21.11.2025
-Péntek</t>
-  </si>
-  <si>
-    <t>22.11.2025
-Szombat</t>
-  </si>
-  <si>
-    <t>28.11.2025
-Péntek</t>
-  </si>
-  <si>
-    <t>29.11.2025
-Szombat</t>
-  </si>
-  <si>
-    <t>5.12.2025
-Péntek</t>
-  </si>
-  <si>
-    <t>2.12.2025
-Kedd</t>
-  </si>
-  <si>
-    <t>4.11.2025
-Kedd</t>
-  </si>
-  <si>
-    <t>6.12.2025
-Szombat</t>
-  </si>
-  <si>
-    <t>9.12.2025
-Kedd</t>
-  </si>
-  <si>
-    <t>12.12.2025
-Péntek</t>
-  </si>
-  <si>
-    <t>13.12.2025
-Szombat</t>
-  </si>
-  <si>
-    <t>16.12.2025
-Kedd</t>
-  </si>
-  <si>
-    <t>19.12.2025
-Péntek</t>
-  </si>
-  <si>
-    <t>20.12.2025
-Szombat</t>
-  </si>
-  <si>
-    <t>23.12.2025
-Kedd</t>
-  </si>
-  <si>
-    <t>26.12.2025
-Péntek</t>
-  </si>
-  <si>
-    <t>27.12.2025
-Szombat</t>
-  </si>
-  <si>
-    <t>30.12.2025
-Kedd</t>
   </si>
   <si>
     <t>Ripcsu Katalin
 Ádám Edit</t>
   </si>
   <si>
-    <t>1.11.2025
-Szombat</t>
-  </si>
-  <si>
-    <t>Ripcsu Katalin
-Móricz Miriám</t>
-  </si>
-  <si>
     <t>Ripcsu Katalin
 Mily Zsuzsa</t>
   </si>
   <si>
     <t>Ripcsu Katalin
-Eszenyi Bébi</t>
-  </si>
-  <si>
-    <t>Simon Albert
-id.Eszenyi István</t>
-  </si>
-  <si>
-    <t>Simon Albert
-Olga Simon</t>
-  </si>
-  <si>
-    <t>Ripcsu Katalin
 Ferenczi Éva</t>
   </si>
   <si>
@@ -204,175 +78,313 @@
   </si>
   <si>
     <t>Ripcsu Katalin
-Eszenyi Martina</t>
+Eszenyi Angéla</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Móricz Marika</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Gazdag Eta</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Eszenyi Anita</t>
+  </si>
+  <si>
+    <t>Czinke Berti
+Venczel Gergő</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Bacskai Gizella</t>
+  </si>
+  <si>
+    <t>Kovács István
+Kovács Éva</t>
   </si>
   <si>
     <t>Ripcsu Katalin
-Eszenyi Angéla</t>
+Eszenyi Anita</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Hami Olga</t>
+  </si>
+  <si>
+    <t>Móricz Éva
+Pongó Irma</t>
+  </si>
+  <si>
+    <t>Pelák Olgi 
+Németh Irén</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Móricz Jutka</t>
+  </si>
+  <si>
+    <t>Január - február</t>
+  </si>
+  <si>
+    <t>02.01.2026
+péntek</t>
+  </si>
+  <si>
+    <t>03.01.2026
+szombat</t>
+  </si>
+  <si>
+    <t>06.01.2026
+kedd</t>
+  </si>
+  <si>
+    <t>09.01.2026
+péntek</t>
+  </si>
+  <si>
+    <t>10.01.2026
+szombat</t>
+  </si>
+  <si>
+    <t>13.01.2026
+ kedd</t>
+  </si>
+  <si>
+    <t>16.01.2026
+ péntek</t>
+  </si>
+  <si>
+    <t>17.01.2026
+ szombat</t>
+  </si>
+  <si>
+    <t>20.01.2026
+ kedd</t>
+  </si>
+  <si>
+    <t>23.01.2026
+ péntek</t>
+  </si>
+  <si>
+    <t>24.01.2026
+ szombat</t>
+  </si>
+  <si>
+    <t>27.01.2026
+ kedd</t>
+  </si>
+  <si>
+    <t>30.01.2026
+ péntek</t>
+  </si>
+  <si>
+    <t>31.01.2026
+ szombat</t>
+  </si>
+  <si>
+    <t>03.02.202
+ kedd</t>
+  </si>
+  <si>
+    <t>06.02.2026
+ péntek</t>
+  </si>
+  <si>
+    <t>07.02.2026
+ szombat</t>
+  </si>
+  <si>
+    <t>10.02.2026
+ kedd</t>
+  </si>
+  <si>
+    <t>13.02.2026
+ péntek</t>
+  </si>
+  <si>
+    <t>14.02.2026
+ szombat</t>
+  </si>
+  <si>
+    <t>17.02.2026
+ kedd</t>
+  </si>
+  <si>
+    <t>20.02.2026
+ péntek</t>
+  </si>
+  <si>
+    <t>21.02.2026
+ szombat</t>
+  </si>
+  <si>
+    <t>24.02.2026
+ kedd</t>
+  </si>
+  <si>
+    <t>27.02.2026
+ péntek</t>
+  </si>
+  <si>
+    <t>28.02.2026
+ szombat</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin 
+Móricz Miriám</t>
+  </si>
+  <si>
+    <t>Eszenyi Martina Németh Irén</t>
+  </si>
+  <si>
+    <t>Eszenyi Martina 
+Móricz Marika</t>
+  </si>
+  <si>
+    <t>Pelák Olgi 
+Eszenyi Icu</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin Eszenyi Bébi</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+ Gál Edit</t>
+  </si>
+  <si>
+    <t>Móricz Zsolt Biacsko Miklós</t>
+  </si>
+  <si>
+    <t>Móricz Norbert Gál Zoltán</t>
+  </si>
+  <si>
+    <t>Czinke Berti Csokina Miklós</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+ Gazdag Eta</t>
+  </si>
+  <si>
+    <t>Pelák Olgi 
+Bacskai Gizella</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Mily Cynthia</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+ Mily Zsuzsa</t>
+  </si>
+  <si>
+    <t>Mato Pál
+Mily Gyuri</t>
+  </si>
+  <si>
+    <t>Eszenyi Norbi
+Ifj.Eszenyi István</t>
+  </si>
+  <si>
+    <t>Illés Attila
+Móricz Zoltán</t>
+  </si>
+  <si>
+    <t>Gazdag Róbert 
+id.Eszenyi István</t>
+  </si>
+  <si>
+    <t>Mato Miro
+Mato Nelli</t>
+  </si>
+  <si>
+    <t>Soltész Csaba
+Ferenczi József</t>
+  </si>
+  <si>
+    <t>Hami Krisztián 
+Venczel Gergő</t>
+  </si>
+  <si>
+    <t>Eszenyi Norbi
+Soltész Csaba</t>
+  </si>
+  <si>
+    <t>Mato Pál
+Czinke Berti</t>
+  </si>
+  <si>
+    <t>Ádám Edit
+Mato Nelli</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Kosztyu Klára</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin 
+Czinke Alica</t>
+  </si>
+  <si>
+    <t>Ripcsu Katalin
+Eszenyi Icu</t>
+  </si>
+  <si>
+    <t>Móricz Zoltán
+Móricz Norbert</t>
+  </si>
+  <si>
+    <t>Móricz Miriám
+Pongó Irma</t>
   </si>
   <si>
     <t>Gazdag Róbert
-Móricz Norbert</t>
+Csokina Miklós</t>
+  </si>
+  <si>
+    <t>Soltész Csaba
+Biacsko Miklós</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Gál Edit</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Eszenyi Bébi</t>
+  </si>
+  <si>
+    <t>Pelák Olgi
+Hami Olga</t>
   </si>
   <si>
     <t>Illés Attila
-Soltész Csaba</t>
+id.Eszenyi István</t>
+  </si>
+  <si>
+    <t>Móricz Zsolt
+If.Eszenyi István</t>
+  </si>
+  <si>
+    <t>Gál Zoltán
+Eszenyi Norbi</t>
   </si>
   <si>
     <t>Mily Gyuri
 Mato Pál</t>
   </si>
   <si>
-    <t>Gál Zoltán
-Móricz Zsolt</t>
-  </si>
-  <si>
-    <t>Móricz Zoltán
-Móricz Jutka</t>
-  </si>
-  <si>
-    <t>Pelák Olgi
-Németh Irén</t>
-  </si>
-  <si>
-    <t>Pelák Olgi
-Tomori Marika</t>
-  </si>
-  <si>
-    <t>Pongó Irma
-Kosztyu Klára</t>
-  </si>
-  <si>
-    <t>Pelák  Olgi
-Eszenyi Icu</t>
-  </si>
-  <si>
-    <t>Pelák Olgi
-Móricz Marika</t>
-  </si>
-  <si>
-    <t>Pelák Olgi
-Gazdag Eta</t>
-  </si>
-  <si>
-    <t>Pelák Olgi
-Eszenyi Anita</t>
-  </si>
-  <si>
-    <t>Csokina Miklós
-ifj.Eszenyi István</t>
-  </si>
-  <si>
-    <t>Eszenyi Norbi
-Biacsko Miklós</t>
-  </si>
-  <si>
-    <t>Móricz Éva
-Hami Olga</t>
-  </si>
-  <si>
-    <t>Czinke Berti
-Venczel Gergő</t>
-  </si>
-  <si>
-    <t>Mato Miro
+    <t>Ferenczi Éva
+Mato Nelli</t>
+  </si>
+  <si>
+    <t>Gazdag Róbert
 Hami Krisztián</t>
   </si>
   <si>
-    <t>Móricz Zoltán
-Móricz Zsolt</t>
-  </si>
-  <si>
-    <t>Pelák Olgi
-Bacskai Gizella</t>
-  </si>
-  <si>
-    <t>Kovács István
-Kovács Éva</t>
-  </si>
-  <si>
-    <t>Ripcsu Katalin
-Eszenyi Anita</t>
-  </si>
-  <si>
-    <t>Ripcsu Katalin
-Hami Olga</t>
-  </si>
-  <si>
-    <t>Ripcsu Katalin
-Kostyu Klára</t>
-  </si>
-  <si>
-    <t>Ripcsu Katalin
-Gál Edit</t>
-  </si>
-  <si>
-    <t>Pelák Olgi
-Móricz Miriám</t>
-  </si>
-  <si>
-    <t>Gál Zoltán
-Biacsko Mikós</t>
-  </si>
-  <si>
-    <t>Móricz Éva
-Pongó Irma</t>
-  </si>
-  <si>
-    <t>Mily Zsuzsa
-Eszenyi Bébi</t>
-  </si>
-  <si>
-    <t>Pelák Olgi 
-Németh Irén</t>
-  </si>
-  <si>
-    <t>Pelák Olgi
-Eszenyi Icu</t>
-  </si>
-  <si>
-    <t>Pelák Olgi
-Móricz Jutka</t>
-  </si>
-  <si>
-    <t>Mato Nelli
-Mily Cynthia</t>
-  </si>
-  <si>
-    <t>Illés Attila
-Mily Gyuri</t>
-  </si>
-  <si>
-    <t>Gazdag Róbert
-Venczel Gergő</t>
-  </si>
-  <si>
-    <t>id Eszenyi István 
-Hami Krisztián</t>
-  </si>
-  <si>
-    <t>ifj.Eszenzi István
-Móricz Norbert</t>
-  </si>
-  <si>
-    <t>Ü</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Mato Pál
-Csokina Miklós</t>
-  </si>
-  <si>
-    <t>Pelák Olgi
-Eszenyi Cilla,Gál Edit</t>
+    <t>Ripcsu Katalin 
+Ádám Edit</t>
   </si>
 </sst>
 </file>
@@ -493,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -551,11 +563,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -599,9 +626,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -617,12 +641,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -941,9 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -955,8 +977,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" s="1">
+        <v>2026</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -974,9 +996,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>11</v>
+    <row r="2" spans="1:6" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>9</v>
@@ -995,59 +1017,59 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>0</v>
+      <c r="A3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>0</v>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>0</v>
+      <c r="A5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -1056,56 +1078,56 @@
     </row>
     <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>49</v>
+        <v>93</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>0</v>
@@ -1115,237 +1137,237 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>0</v>
+      <c r="A9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>0</v>
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>0</v>
+      <c r="A11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="E12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>0</v>
+      <c r="F19" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>0</v>
@@ -1355,163 +1377,163 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>0</v>
+      <c r="A21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>0</v>
+      <c r="D22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>0</v>
+      <c r="A23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="D24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>80</v>
+      <c r="E27" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
